--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1740431.740889569</v>
+        <v>1793631.691746163</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903708</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7498692.894356381</v>
+        <v>7731370.666611279</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.041206681401</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -674,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>197.1938412253871</v>
       </c>
     </row>
     <row r="3">
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>203.1256245444088</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.733818067947743</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>373.5459906573383</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>271.4089641335527</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>77.67468328580608</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1108,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>155.8335957378396</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1142,13 +1144,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.7257111612948</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.0702368744257</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>146.5980694263805</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>61.96009404077324</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>50.25897109129162</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.091153082097</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.31743103355252</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1622,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1658,7 +1660,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1768,16 +1770,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>139.644704044476</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>22.92681701721074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,16 +2010,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>151.08974295335</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>199.7039723376029</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>164.5175082466431</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260363</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2539,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.06736062834895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>269.9562877695856</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2731,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>94.74283926245238</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>28.0149076090955</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>311.8478483792505</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>85.2997057160983</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>185.8058834121107</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3032,13 +3034,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>337.8578625689831</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3196,7 +3198,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>123.7601747267916</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>360.5621482941648</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3278,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.0775356384635</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3554,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>291.3512556275635</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>274.3964199659356</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>98.40348751227842</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>271.0033217146718</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>205.2934183826719</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3806,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>41.24458363092513</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>64.62510617393799</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>403.0357706953228</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3992,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>63.62393068976531</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>42.43741174507667</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>64.95210538030059</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.6426643811656</v>
+        <v>391.1589950301166</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.075159870194</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1346.075159870194</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>945.4317620391464</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y2" t="n">
-        <v>945.4317620391464</v>
+        <v>397.339770654202</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>497.571341894901</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>497.571341894901</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1531.257211227552</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4510,25 +4512,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1094.322097276056</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>811.5239498221802</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>811.5239498221802</v>
       </c>
       <c r="W4" t="n">
-        <v>309.4699181015847</v>
+        <v>532.4542853310545</v>
       </c>
       <c r="X4" t="n">
-        <v>309.4699181015847</v>
+        <v>532.4542853310545</v>
       </c>
       <c r="Y4" t="n">
         <v>307.7185867198193</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.752026609714</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.627435922984</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
-        <v>728.1635060160443</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>717.863694573345</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>443.7132257515746</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>457.5696801399946</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4652,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M6" t="n">
-        <v>158.3214934345126</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008379</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.3962115190108</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4253276531883</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>588.5395825927103</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W7" t="n">
-        <v>431.1319101302461</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X7" t="n">
-        <v>431.1319101302461</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.3962115190108</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.6830684215697</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>968.5988817752439</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>564.1349518683044</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>624.1772265764082</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>4260.329627678871</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368436</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368436</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>4300.886273368436</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>4300.886273368436</v>
       </c>
       <c r="V8" t="n">
-        <v>1516.210242763442</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>1132.44994189861</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>1132.44994189861</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.8638440456551</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1398.990311409344</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>599.5701822109229</v>
+        <v>1152.337061336667</v>
       </c>
       <c r="C10" t="n">
-        <v>428.4768097726394</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>268.9821650955494</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1025.613750745284</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1025.613750745284</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>787.2698886049673</v>
+        <v>1377.072759947902</v>
       </c>
       <c r="Y10" t="n">
-        <v>787.2698886049673</v>
+        <v>1152.337061336667</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2531.835765352786</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>2121.711174666056</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1717.247244759116</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2300.455092234635</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3794.403653366184</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3794.403653366184</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W11" t="n">
-        <v>3743.637015900233</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>3342.993618069185</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2942.056945017275</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>736.976244986612</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M12" t="n">
-        <v>856.7142858833993</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N12" t="n">
-        <v>856.7142858833993</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1165.22192336846</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>994.1285509301767</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>834.6339062530867</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>673.7230911214062</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>509.0919652319975</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.465512340275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.465512340275</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.465512340275</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1799.896855934191</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1389.772265247461</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>985.3083353405216</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E14" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F14" t="n">
-        <v>570.9681198574183</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>162.2398357502505</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>546.964137021612</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1259.55553683385</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2035.874127825604</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2789.055144464222</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3432.686000881327</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3402.062086419795</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3052.224531756276</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2668.464230891444</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2267.820833060397</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1866.884160008487</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>929.7891025492452</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1560.671376429294</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>1560.671376429294</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>814.9010183380867</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>643.8076458998032</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>643.8076458998032</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>482.8968307681227</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>482.8968307681227</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1240.944586872448</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>1002.600724732131</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>1002.600724732131</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>836.0388801975582</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>427.3105960903904</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>116.4020987181084</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5552,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5597,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.1777607016702</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>369.0843882633866</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>209.5897435862967</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1470.026692338392</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1470.026692338392</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="U19" t="n">
-        <v>1470.026692338392</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="V19" t="n">
-        <v>1470.026692338392</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="W19" t="n">
-        <v>1190.957027847267</v>
+        <v>1420.921410132076</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6131657069499</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y19" t="n">
-        <v>727.8774670957146</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5783,19 +5785,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>1436.250826191383</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>1436.250826191383</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.250826191383</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6169,25 +6171,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.79311641105</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>4236.244377387751</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>3953.446229933875</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>3679.560484873397</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>3400.490820382272</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X25" t="n">
-        <v>3162.146958241955</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y25" t="n">
         <v>3132.785987910289</v>
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>873.3089913790395</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>452.2785793327271</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>452.2785793327271</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6245,31 +6247,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6300,25 +6302,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>735.6434849807119</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="C28" t="n">
-        <v>735.6434849807119</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000508</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805964</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.91216620654</v>
       </c>
       <c r="S28" t="n">
-        <v>1526.942756672632</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="T28" t="n">
-        <v>1526.942756672632</v>
+        <v>4150.971659063152</v>
       </c>
       <c r="U28" t="n">
-        <v>1526.942756672632</v>
+        <v>3868.173511609276</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.057011612154</v>
+        <v>3594.287766548798</v>
       </c>
       <c r="W28" t="n">
-        <v>973.9873471210285</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="X28" t="n">
-        <v>735.6434849807119</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="Y28" t="n">
-        <v>735.6434849807119</v>
+        <v>3565.989880074964</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2324.444211508952</v>
+        <v>2459.725286714853</v>
       </c>
       <c r="C29" t="n">
-        <v>1914.319620822223</v>
+        <v>2049.600696028123</v>
       </c>
       <c r="D29" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>265.7567792786995</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6482,31 +6484,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U29" t="n">
-        <v>4269.84331758475</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V29" t="n">
-        <v>3920.005762921231</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3536.245462056399</v>
+        <v>3671.5265372623</v>
       </c>
       <c r="X29" t="n">
-        <v>3135.602064225352</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.665391173442</v>
+        <v>2869.946466379342</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,19 +6539,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N30" t="n">
         <v>1809.878870496807</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>425.1252146544881</v>
+        <v>3463.374005025664</v>
       </c>
       <c r="C31" t="n">
-        <v>425.1252146544881</v>
+        <v>3292.28063258738</v>
       </c>
       <c r="D31" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U31" t="n">
-        <v>923.7466583262014</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="V31" t="n">
-        <v>649.8609132657234</v>
+        <v>4393.222936662386</v>
       </c>
       <c r="W31" t="n">
-        <v>649.8609132657234</v>
+        <v>4114.15327217126</v>
       </c>
       <c r="X31" t="n">
-        <v>649.8609132657234</v>
+        <v>3875.809410030944</v>
       </c>
       <c r="Y31" t="n">
-        <v>425.1252146544881</v>
+        <v>3651.073711419708</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6737,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
         <v>2139.732893541123</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>971.8633271658769</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C34" t="n">
-        <v>971.8633271658769</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>812.3686824887868</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>651.4578673571064</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
         <v>526.4475898552967</v>
@@ -6898,10 +6900,10 @@
         <v>1622.642594311473</v>
       </c>
       <c r="X34" t="n">
-        <v>1384.298732171156</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y34" t="n">
-        <v>1159.563033559921</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C36" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D36" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E36" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H36" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>2945.549711724955</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>3788.526792419522</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R36" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S36" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T36" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U36" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V36" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W36" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X36" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>209.5897435862967</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C37" t="n">
-        <v>209.5897435862967</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V37" t="n">
-        <v>1065.958701797119</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W37" t="n">
-        <v>786.8890373059935</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X37" t="n">
-        <v>548.5451751656769</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y37" t="n">
-        <v>323.8094765544416</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7193,22 +7195,22 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T38" t="n">
-        <v>4494.590496051882</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W38" t="n">
         <v>3760.992640523532</v>
@@ -7239,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7248,19 +7250,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N39" t="n">
         <v>1809.878870496807</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>846.8530496640672</v>
+        <v>588.462840695405</v>
       </c>
       <c r="C40" t="n">
-        <v>846.8530496640672</v>
+        <v>417.3694682571215</v>
       </c>
       <c r="D40" t="n">
-        <v>687.3584049869771</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E40" t="n">
-        <v>526.4475898552967</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I40" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J40" t="n">
         <v>107.3262470958333</v>
@@ -7360,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W40" t="n">
-        <v>1071.588748275302</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.588748275302</v>
+        <v>1000.898245700685</v>
       </c>
       <c r="Y40" t="n">
-        <v>846.8530496640672</v>
+        <v>776.1625470894494</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2395.451903670775</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>2121.711174666056</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1717.247244759116</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>1302.907029276013</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>881.8766172297003</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>473.1483331225325</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H41" t="n">
-        <v>162.2398357502505</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1506.717429906452</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2259.89844654507</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V41" t="n">
-        <v>3179.855602366654</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>2796.095301501822</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>2395.451903670775</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2395.451903670775</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="K42" t="n">
-        <v>531.6943293326224</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L42" t="n">
-        <v>1192.782501251911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>1192.782501251911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>1192.782501251911</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>1560.671376429294</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>841.0961528019616</v>
+        <v>134.9048932774159</v>
       </c>
       <c r="C43" t="n">
-        <v>670.0027803636781</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D43" t="n">
-        <v>670.0027803636781</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E43" t="n">
-        <v>509.0919652319975</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F43" t="n">
-        <v>509.0919652319975</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G43" t="n">
-        <v>341.8415741575409</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1094.073744220186</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1028.795859196006</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1028.795859196006</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>1028.795859196006</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>1028.795859196006</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y43" t="n">
-        <v>1028.795859196006</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.575505297576</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.450914610847</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1319.986984703907</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>905.6467692208039</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>484.6163571744915</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>75.88807306732367</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3753.954909503832</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3753.954909503832</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.954909503832</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U44" t="n">
-        <v>3794.403653366184</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V44" t="n">
-        <v>3730.137056709855</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.376755845024</v>
+        <v>3671.5265372623</v>
       </c>
       <c r="X44" t="n">
-        <v>2945.733358013976</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y44" t="n">
-        <v>2544.796684962066</v>
+        <v>2869.946466379342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K45" t="n">
-        <v>531.6943293326224</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.782501251911</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.782501251911</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.782501251911</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>994.1285509301767</v>
+        <v>136.1097701603972</v>
       </c>
       <c r="C46" t="n">
-        <v>994.1285509301767</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D46" t="n">
-        <v>834.6339062530867</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E46" t="n">
-        <v>673.7230911214062</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F46" t="n">
-        <v>509.0919652319975</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G46" t="n">
-        <v>341.8415741575409</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H46" t="n">
-        <v>192.2341189629975</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1268.014295990655</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U46" t="n">
-        <v>1268.014295990655</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V46" t="n">
-        <v>994.1285509301767</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W46" t="n">
-        <v>994.1285509301767</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X46" t="n">
-        <v>994.1285509301767</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y46" t="n">
-        <v>994.1285509301767</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>337.4068669225207</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8000,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>233.6465907663767</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832877</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8237,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,10 +8300,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M6" t="n">
-        <v>175.2980289959028</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8310,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>313.5427330088458</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>527.2265162238739</v>
+        <v>305.1060755964293</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8699,7 +8701,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>292.4047425286195</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8711,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M12" t="n">
-        <v>178.5117997957783</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8927,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>308.2177962252717</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>694.8191058394764</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9179,10 +9181,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>204.7378408708281</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>194.2512024630823</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>174.1409094511112</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10425,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>191.1068079688657</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10662,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>194.5399434893158</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
@@ -10677,7 +10679,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10829,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.450417378009</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>275.187654677097</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11136,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>172.3167548573611</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
@@ -11151,7 +11153,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681343</v>
       </c>
       <c r="R44" t="n">
-        <v>128.1694598474017</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>429.3564034215989</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>329.6637267648915</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.73155624800697</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -23479,10 +23481,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>339.8015368342921</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>25.93318311923602</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23713,13 +23715,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>62.56142803888683</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>33.43810748553886</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>37.44927929546199</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -23950,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>21.30520108346087</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -24184,7 +24186,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -24193,7 +24195,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.420980996774</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>37.84312462897361</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>89.78501117643646</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>248.2640602371189</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>88.5714422286195</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>94.16428256722637</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24920,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>39.22463990372306</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>45.55681957367977</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.74517369164043</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25330,7 +25332,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>54.06597461814459</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>88.57144222861962</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>1.882547880278707</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>137.556936006635</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>135.0200230651907</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>49.19646844041304</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>128.1378550829755</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>215.3450598053991</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>3.08319717252175</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25919,10 +25921,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>282.7152484271188</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2011462527643</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>713076.638272016</v>
+        <v>726152.622849533</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576947.8286594751</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576947.8286594751</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652443.9392444546</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652443.9392444546</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652443.9392444546</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652443.9392444546</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>576947.8286594751</v>
+        <v>652443.9392444547</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>576947.8286594748</v>
+        <v>652443.939244455</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456070.7004908797</v>
+        <v>456070.7004908795</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908795</v>
       </c>
       <c r="D2" t="n">
-        <v>456070.7004908794</v>
+        <v>456070.7004908793</v>
       </c>
       <c r="E2" t="n">
-        <v>358596.2769005953</v>
+        <v>405508.1345491313</v>
       </c>
       <c r="F2" t="n">
-        <v>358596.2769005955</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="G2" t="n">
+        <v>405508.1345491312</v>
+      </c>
+      <c r="H2" t="n">
+        <v>405508.1345491312</v>
+      </c>
+      <c r="I2" t="n">
         <v>405508.1345491314</v>
       </c>
-      <c r="H2" t="n">
-        <v>405508.1345491314</v>
-      </c>
-      <c r="I2" t="n">
-        <v>405508.1345491313</v>
-      </c>
       <c r="J2" t="n">
-        <v>405508.1345491313</v>
+        <v>405508.1345491311</v>
       </c>
       <c r="K2" t="n">
         <v>405508.1345491312</v>
       </c>
       <c r="L2" t="n">
+        <v>405508.1345491313</v>
+      </c>
+      <c r="M2" t="n">
+        <v>405508.1345491313</v>
+      </c>
+      <c r="N2" t="n">
+        <v>405508.1345491313</v>
+      </c>
+      <c r="O2" t="n">
+        <v>405508.1345491315</v>
+      </c>
+      <c r="P2" t="n">
         <v>405508.1345491314</v>
-      </c>
-      <c r="M2" t="n">
-        <v>405508.1345491314</v>
-      </c>
-      <c r="N2" t="n">
-        <v>405508.1345491312</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358596.2769005953</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358596.2769005952</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100683</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.9541809344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647525</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404757</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>184088.9587438941</v>
+        <v>99895.51658519974</v>
       </c>
       <c r="E4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="F4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090265</v>
       </c>
       <c r="H4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44919.86535090264</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090265</v>
@@ -26454,10 +26456,10 @@
         <v>44919.86535090265</v>
       </c>
       <c r="O4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>39688.97475648369</v>
+        <v>44919.86535090265</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520023</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26491,10 +26493,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="L5" t="n">
         <v>70865.21024487332</v>
@@ -26503,13 +26505,13 @@
         <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487333</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31657.16677537397</v>
+        <v>31657.16677537374</v>
       </c>
       <c r="C6" t="n">
-        <v>206612.6766684877</v>
+        <v>206612.6766684879</v>
       </c>
       <c r="D6" t="n">
-        <v>206612.6766684878</v>
+        <v>85346.64364041103</v>
       </c>
       <c r="E6" t="n">
-        <v>133877.699823195</v>
+        <v>262754.1047724209</v>
       </c>
       <c r="F6" t="n">
-        <v>261232.3666129458</v>
+        <v>289723.0589533554</v>
       </c>
       <c r="G6" t="n">
-        <v>230261.6042673937</v>
+        <v>289723.0589533552</v>
       </c>
       <c r="H6" t="n">
+        <v>289723.0589533552</v>
+      </c>
+      <c r="I6" t="n">
         <v>289723.0589533555</v>
       </c>
-      <c r="I6" t="n">
-        <v>289723.0589533554</v>
-      </c>
       <c r="J6" t="n">
-        <v>153128.2581474603</v>
+        <v>153128.2581474601</v>
       </c>
       <c r="K6" t="n">
         <v>289723.0589533552</v>
       </c>
       <c r="L6" t="n">
+        <v>149723.7480886028</v>
+      </c>
+      <c r="M6" t="n">
+        <v>267213.7941793078</v>
+      </c>
+      <c r="N6" t="n">
         <v>289723.0589533554</v>
       </c>
-      <c r="M6" t="n">
-        <v>183428.2469354807</v>
-      </c>
-      <c r="N6" t="n">
-        <v>289723.0589533552</v>
-      </c>
       <c r="O6" t="n">
-        <v>261232.3666129457</v>
+        <v>289723.0589533555</v>
       </c>
       <c r="P6" t="n">
-        <v>261232.3666129455</v>
+        <v>289723.0589533554</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.221568342109</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720835</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.3246527906758</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720833</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.3246527906758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720835</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.3246527906758</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.07776118644352</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>199.7334650960037</v>
       </c>
     </row>
     <row r="3">
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.02762708865609</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.7545235571752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32.57297721050622</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>145.4111437922966</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>108.1480260442979</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>120.4453721083748</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555893</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>246.8570694469651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>22.78436928752012</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>97.34161293959048</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28068,7 +28070,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>179.3869557635729</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>400.9092955204429</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M6" t="n">
-        <v>117.7337452574854</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35030,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>223.5089286096938</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>471.1119924130248</v>
+        <v>248.9915517855802</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35419,7 +35421,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>199.4924517720002</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35431,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M12" t="n">
-        <v>120.9475160573609</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>219.0814065520546</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>637.2548221010589</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,10 +35901,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>138.4254196784669</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>120.9475160573612</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.4254196784668</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
@@ -37397,7 +37399,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209635</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>181.8974302200515</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
@@ -37871,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689823</v>
       </c>
       <c r="R44" t="n">
-        <v>40.8573170326782</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>371.6049244215989</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1793631.691746163</v>
+        <v>1792319.046290584</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789205</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>395.3646275917355</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>197.1938412253871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>203.1256245444088</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.5459906573383</v>
+        <v>104.6791286665873</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.67468328580608</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0.2716190095332386</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>161.7257111612948</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>146.5980694263805</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1311,7 +1311,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1384,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>350.5750266479509</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1533,22 +1533,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>17.74968969048676</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1612,19 +1612,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1663,7 +1663,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>119.8051733265733</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>223.6938263603644</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>22.92681701721074</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>199.7039723376029</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>62.93081500079236</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>343.2559819443612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.5175082466431</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2250,7 +2250,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>85.21699100775177</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7162152260363</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.37144488016007</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>62.48809286359673</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>269.9562877695856</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>113.1089195615232</v>
       </c>
       <c r="W28" t="n">
-        <v>28.0149076090955</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>311.8478483792505</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2955,7 +2955,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.8680768990785</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>266.272328390067</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.8578625689831</v>
+        <v>363.9585094926619</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3207,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>265.4588690967872</v>
       </c>
       <c r="X34" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>360.5621482941648</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>179.8761092402657</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>291.3512556275635</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>98.40348751227842</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>320.6751611476632</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>205.2934183826719</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>41.24458363092513</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>403.0357706953228</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>42.43741174507667</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>87.92341695801503</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>391.1589950301166</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C2" t="n">
-        <v>385.0748083837908</v>
+        <v>867.2651132978355</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6512825172554</v>
+        <v>462.801183390896</v>
       </c>
       <c r="E2" t="n">
-        <v>374.3514710745562</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3614630686478</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>997.1688666927112</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>596.5254688616637</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.339770654202</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>675.1644281008383</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>1192.007362767164</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.7185867198193</v>
+        <v>889.4434019746254</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198193</v>
+        <v>718.3500295363419</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1094.322097276056</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>811.5239498221802</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V4" t="n">
-        <v>811.5239498221802</v>
+        <v>1819.292333611347</v>
       </c>
       <c r="W4" t="n">
-        <v>532.4542853310545</v>
+        <v>1540.222669120222</v>
       </c>
       <c r="X4" t="n">
-        <v>532.4542853310545</v>
+        <v>1301.878806979905</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.7185867198193</v>
+        <v>1077.14310836867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.25049765783463</v>
+        <v>974.6830684215696</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>564.5584777348397</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W5" t="n">
-        <v>1259.149751022952</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X5" t="n">
-        <v>858.5063531919045</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="Y5" t="n">
-        <v>457.5696801399946</v>
+        <v>1080.419562024183</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4914807361952</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>810.3981082979117</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>650.9034636208218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4758,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.950756782464</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>90.97996817002468</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>86.29208810326092</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.29208810326092</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736873</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736873</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764082</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2866.268234019018</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3509.899090436123</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4039.055788355275</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678871</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368436</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368436</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368436</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368436</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736873</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>278.830583030002</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>525.3322192977264</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="M9" t="n">
-        <v>525.3322192977264</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="N9" t="n">
-        <v>1398.990311409344</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.947401955239</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2102.947401955239</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
         <v>2102.947401955239</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1152.337061336667</v>
+        <v>1059.005529872831</v>
       </c>
       <c r="C10" t="n">
-        <v>1004.258203330222</v>
+        <v>887.9121574345479</v>
       </c>
       <c r="D10" t="n">
-        <v>844.7635586531319</v>
+        <v>728.4175127574579</v>
       </c>
       <c r="E10" t="n">
-        <v>683.8527435214513</v>
+        <v>567.5066976257774</v>
       </c>
       <c r="F10" t="n">
-        <v>519.2216176320426</v>
+        <v>402.8755717363687</v>
       </c>
       <c r="G10" t="n">
-        <v>351.971226557586</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736873</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948172</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -5004,10 +5004,10 @@
         <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>1377.072759947902</v>
+        <v>1471.440934878111</v>
       </c>
       <c r="Y10" t="n">
-        <v>1152.337061336667</v>
+        <v>1246.705236266876</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G11" t="n">
         <v>490.5039577458317</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V11" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.074801429505</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N12" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>449.516440688703</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>278.4230682504195</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>278.4230682504195</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>278.4230682504195</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>861.9518456939827</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>637.2161470827474</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D14" t="n">
-        <v>1313.572457336103</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E14" t="n">
-        <v>899.2322418529996</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>898.981111021629</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>727.8877385833455</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>1311.416516026909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>1086.680817415673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2485.998028320643</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C17" t="n">
-        <v>2075.873437633913</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1671.409507726974</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1257.069292243871</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>836.0388801975582</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>427.3105960903904</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>116.4020987181084</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5554,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3297.155881037042</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2896.219207985132</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>547.9335070990368</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1420.921410132076</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1420.921410132076</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.921410132076</v>
+        <v>1023.935391903097</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.921410132076</v>
+        <v>960.3689121043165</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.57754799176</v>
+        <v>960.3689121043165</v>
       </c>
       <c r="Y19" t="n">
-        <v>1182.57754799176</v>
+        <v>735.6332134930811</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H20" t="n">
+        <v>179.5954603735497</v>
+      </c>
+      <c r="I20" t="n">
         <v>93.2436976906228</v>
-      </c>
-      <c r="I20" t="n">
-        <v>93.24369769062287</v>
       </c>
       <c r="J20" t="n">
         <v>347.4291691583771</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F22" t="n">
         <v>526.4475898552967</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1297.016086593476</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="X22" t="n">
-        <v>1348.756849250995</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="Y22" t="n">
-        <v>1348.756849250995</v>
+        <v>1017.946422102351</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1645.136766121183</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.796550638079</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>809.7661385917668</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>401.0378544845989</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4572.920798793604</v>
       </c>
       <c r="T23" t="n">
-        <v>4662.18488453114</v>
+        <v>4350.714314740463</v>
       </c>
       <c r="U23" t="n">
-        <v>4405.12439279065</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V23" t="n">
-        <v>4055.286838127131</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W23" t="n">
-        <v>3671.526537262299</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X23" t="n">
-        <v>3270.883139431251</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y23" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>1402.950983437843</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>1402.950983437843</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>1402.950983437843</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P24" t="n">
         <v>2110.173374178493</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>915.1088165971908</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>915.1088165971908</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>915.1088165971908</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>915.1088165971908</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455812</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769082</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862143</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790395</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327271</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>452.2785793327271</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6247,31 +6247,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q26" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6302,25 +6302,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.0565552532561</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>423.0977207349383</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>423.0977207349383</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.074801429505</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3565.989880074964</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C28" t="n">
-        <v>3565.989880074964</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D28" t="n">
-        <v>3565.989880074964</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E28" t="n">
-        <v>3565.989880074964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000508</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.91216620654</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.52039808645</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063152</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609276</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548798</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="W28" t="n">
-        <v>3565.989880074964</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="X28" t="n">
-        <v>3565.989880074964</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y28" t="n">
-        <v>3565.989880074964</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2459.725286714853</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2049.600696028123</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6484,31 +6484,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4405.124392790651</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3671.5265372623</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3270.883139431252</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2869.946466379342</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6539,31 +6539,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.24369769062281</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851895</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3463.374005025664</v>
+        <v>402.5876528552483</v>
       </c>
       <c r="C31" t="n">
-        <v>3292.28063258738</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.78598791029</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.78598791029</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.78598791029</v>
+        <v>231.4942804169648</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.184884531141</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.184884531141</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.184884531141</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.184884531141</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>4393.222936662386</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W31" t="n">
-        <v>4114.15327217126</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X31" t="n">
-        <v>3875.809410030944</v>
+        <v>590.2873592492926</v>
       </c>
       <c r="Y31" t="n">
-        <v>3651.073711419708</v>
+        <v>590.2873592492926</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2485.998028320643</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2075.873437633913</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D32" t="n">
         <v>1734.602869382415</v>
@@ -6739,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3297.155881037042</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2896.219207985132</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>895.138129657802</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.642594311473</v>
+        <v>1082.837836051846</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.012952997039</v>
+        <v>1082.837836051846</v>
       </c>
       <c r="Y34" t="n">
-        <v>1370.277254385804</v>
+        <v>1082.837836051846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6982,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2808.508546243273</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K36" t="n">
-        <v>2808.508546243273</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L36" t="n">
-        <v>2945.549711724955</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>3788.526792419522</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3458.450207833939</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C37" t="n">
-        <v>3287.356835395656</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V37" t="n">
-        <v>4388.299139470661</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W37" t="n">
-        <v>4109.229474979536</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X37" t="n">
-        <v>3870.885612839219</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y37" t="n">
-        <v>3646.149914227984</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7195,31 +7195,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4405.124392790651</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
         <v>184.7395020346666</v>
@@ -7250,28 +7250,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.24369769062281</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851895</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.462840695405</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>417.3694682571215</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>257.8748235800315</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.24369769062281</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.24369769062281</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
         <v>107.3262470958333</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1383.093855288175</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.295707834299</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W40" t="n">
-        <v>1100.295707834299</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.898245700685</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y40" t="n">
-        <v>776.1625470894494</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>93.24369769062281</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674165</v>
@@ -7432,31 +7432,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3747.492681333154</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W41" t="n">
-        <v>3363.732380468323</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
         <v>184.7395020346666</v>
@@ -7487,28 +7487,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.9048932774159</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
         <v>107.3262470958333</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X43" t="n">
-        <v>547.3402982826956</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y43" t="n">
-        <v>322.6045996714603</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7669,31 +7669,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4405.124392790651</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3671.5265372623</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>3270.883139431252</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2869.946466379342</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
         <v>184.7395020346666</v>
@@ -7724,25 +7724,25 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851895</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>136.1097701603972</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C46" t="n">
-        <v>93.24369769062281</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>93.24369769062281</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>93.24369769062281</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>93.24369769062281</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>93.24369769062281</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.24369769062281</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
         <v>107.3262470958333</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1533.83106203065</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1294.282323007352</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.958701797119</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="W46" t="n">
-        <v>786.8890373059935</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X46" t="n">
-        <v>548.5451751656769</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y46" t="n">
-        <v>323.8094765544416</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1513772538824</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>532.6464328093261</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0504334731807</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
@@ -8309,13 +8309,13 @@
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>532.6464328093257</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>313.5427330088458</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>305.1060755964293</v>
+        <v>712.2489309321194</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8774,10 +8774,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
@@ -8786,7 +8786,7 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>571.1716873458281</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9011,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9181,7 +9181,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,22 +9485,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>491.4496229341746</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
@@ -9728,13 +9728,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>204.7378408708281</v>
+        <v>544.8054309767314</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>194.2512024630823</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>191.1068079688657</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5399434893158</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.450417378009</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10840,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10907,22 +10907,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>172.3167548573611</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11159,7 +11159,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681343</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11384,16 +11384,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>54.06597461814516</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.2351249400279</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23481,7 +23481,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23718,7 +23718,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>12.26659715854908</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>62.56142803888683</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>37.44927929546199</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>213.348152845422</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.30520108346087</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>185.9298966021215</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3.083197172522887</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>45.55681957368007</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>95.41160536672234</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>37.84312462897361</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>158.0379680483501</v>
       </c>
       <c r="W28" t="n">
-        <v>248.2640602371189</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>88.5714422286195</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>28.70981026463346</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.874559219806258</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>62.5614280388869</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25137,13 +25137,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>10.82009874942719</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.55681957367977</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25326,10 +25326,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25365,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>42.61223238485718</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>88.57144222861962</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>137.556936006635</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>49.19646844041304</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>128.1378550829755</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>170.5352159497217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.08319717252175</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>126.945026968824</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>96.60443348087381</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652443.9392444547</v>
+        <v>652443.9392444545</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652443.9392444547</v>
+        <v>652443.9392444546</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652443.9392444547</v>
+        <v>652443.9392444545</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652443.9392444547</v>
+        <v>652443.9392444546</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652443.9392444547</v>
+        <v>652443.9392444546</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652443.939244455</v>
+        <v>652443.9392444545</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>456070.7004908795</v>
       </c>
       <c r="C2" t="n">
-        <v>456070.7004908795</v>
+        <v>456070.7004908794</v>
       </c>
       <c r="D2" t="n">
         <v>456070.7004908793</v>
       </c>
       <c r="E2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="F2" t="n">
         <v>405508.1345491313</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>405508.1345491314</v>
       </c>
-      <c r="G2" t="n">
-        <v>405508.1345491312</v>
-      </c>
       <c r="H2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491314</v>
       </c>
       <c r="I2" t="n">
+        <v>405508.1345491313</v>
+      </c>
+      <c r="J2" t="n">
         <v>405508.1345491314</v>
       </c>
-      <c r="J2" t="n">
-        <v>405508.1345491311</v>
-      </c>
       <c r="K2" t="n">
-        <v>405508.1345491312</v>
+        <v>405508.1345491315</v>
       </c>
       <c r="L2" t="n">
+        <v>405508.1345491315</v>
+      </c>
+      <c r="M2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="O2" t="n">
+        <v>405508.1345491314</v>
+      </c>
+      <c r="P2" t="n">
         <v>405508.1345491313</v>
-      </c>
-      <c r="M2" t="n">
-        <v>405508.1345491313</v>
-      </c>
-      <c r="N2" t="n">
-        <v>405508.1345491313</v>
-      </c>
-      <c r="O2" t="n">
-        <v>405508.1345491315</v>
-      </c>
-      <c r="P2" t="n">
-        <v>405508.1345491314</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100683</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.9541809344</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647525</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404757</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>99895.51658519974</v>
+        <v>99895.51658519972</v>
       </c>
       <c r="E4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="I4" t="n">
         <v>44919.86535090264</v>
@@ -26444,13 +26444,13 @@
         <v>44919.86535090265</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
         <v>44919.86535090265</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520023</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26493,10 +26493,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
         <v>70865.21024487332</v>
@@ -26505,13 +26505,13 @@
         <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31657.16677537374</v>
+        <v>31657.16677537376</v>
       </c>
       <c r="C6" t="n">
-        <v>206612.6766684879</v>
+        <v>206612.6766684878</v>
       </c>
       <c r="D6" t="n">
-        <v>85346.64364041103</v>
+        <v>85346.64364041088</v>
       </c>
       <c r="E6" t="n">
-        <v>262754.1047724209</v>
+        <v>262573.5241797721</v>
       </c>
       <c r="F6" t="n">
-        <v>289723.0589533554</v>
+        <v>289542.4783607062</v>
       </c>
       <c r="G6" t="n">
-        <v>289723.0589533552</v>
+        <v>289542.4783607063</v>
       </c>
       <c r="H6" t="n">
-        <v>289723.0589533552</v>
+        <v>289542.4783607064</v>
       </c>
       <c r="I6" t="n">
-        <v>289723.0589533555</v>
+        <v>289542.4783607062</v>
       </c>
       <c r="J6" t="n">
-        <v>153128.2581474601</v>
+        <v>152947.6775548113</v>
       </c>
       <c r="K6" t="n">
-        <v>289723.0589533552</v>
+        <v>289542.4783607064</v>
       </c>
       <c r="L6" t="n">
-        <v>149723.7480886028</v>
+        <v>149543.1674959537</v>
       </c>
       <c r="M6" t="n">
-        <v>267213.7941793078</v>
+        <v>267033.2135866589</v>
       </c>
       <c r="N6" t="n">
-        <v>289723.0589533554</v>
+        <v>289542.4783607063</v>
       </c>
       <c r="O6" t="n">
-        <v>289723.0589533555</v>
+        <v>289542.4783607063</v>
       </c>
       <c r="P6" t="n">
-        <v>289723.0589533554</v>
+        <v>289542.4783607062</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.221568342109</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720835</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.3246527906758</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720833</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.3246527906758</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720835</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.3246527906758</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>14.8321857365367</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.7334650960037</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27554,10 +27554,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>34.02762708865609</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.57297721050622</v>
+        <v>301.4398392012573</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1480260442979</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.21662604656433</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555893</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>22.78436928752012</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>445.0368534430334</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>474.8949538093261</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
@@ -35029,13 +35029,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>474.8949538093257</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.5089286096938</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>248.9915517855802</v>
+        <v>656.1344071212703</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35901,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>667.7658302215033</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>146.9863618708281</v>
+        <v>487.0539519767314</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.4254196784669</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>133.5425242304483</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>138.4254196784668</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209635</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -37879,7 +37879,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689823</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
